--- a/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2005 (G05).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2005 (G05).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,119 +444,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gemstone Mine</t>
+          <t>('Gemstone Mine', ['Land', 'Gemstone Mine enters the battlefield with three mining counters on it.', '{T}, Remove a mining counter from Gemstone Mine: Add one mana of any color. If there are no mining counters on Gemstone Mine, sacrifice it.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>("Mishra's Factory", ['Land', '{T}: Add {C}.', '{1}: Mishra’s Factory becomes a 2/2 Assembly-Worker artifact creature until end of turn. It’s still a land.', '{T}: Target Assembly-Worker creature gets +1/+1 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gemstone Mine enters the battlefield with three mining counters on it.</t>
+          <t>('Regrowth', ['{1}{G}', 'Sorcery', 'Return target card from your graveyard to your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{T}, Remove a mining counter from Gemstone Mine: Add one mana of any color. If there are no mining counters on Gemstone Mine, sacrifice it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Mishra's Factory</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>{T}: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{1}: Mishra’s Factory becomes a 2/2 Assembly-Worker artifact creature until end of turn. It’s still a land.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{T}: Target Assembly-Worker creature gets +1/+1 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Regrowth</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Return target card from your graveyard to your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Sol Ring</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{1}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{T}: Add {C}{C}.</t>
+          <t>('Sol Ring', ['{1}', 'Artifact', '{T}: Add {C}{C}.'])</t>
         </is>
       </c>
     </row>
